--- a/Rapid Review/RapidLiteratureReview.xlsx
+++ b/Rapid Review/RapidLiteratureReview.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless_xtbdjh4\Desktop\ECSA24\Supplementary material\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E33BF39-4103-4E7E-952C-2FB2D23AA530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C5B82-AE76-4107-B8B1-455E1802FB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="427" xr2:uid="{AA3E3ED2-D1CE-4731-B216-D8126A38E504}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="427" xr2:uid="{AA3E3ED2-D1CE-4731-B216-D8126A38E504}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -3075,6 +3070,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3097,12 +3098,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3470,42 +3465,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="20" t="s">
         <v>135</v>
       </c>
       <c r="S1" s="5"/>
@@ -3526,12 +3521,12 @@
       <c r="AH1" s="5"/>
     </row>
     <row r="2" spans="1:34" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="9" t="s">
         <v>136</v>
       </c>
@@ -3562,8 +3557,8 @@
       <c r="P2" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -4479,17 +4474,18 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Rapid Review/RapidLiteratureReview.xlsx
+++ b/Rapid Review/RapidLiteratureReview.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C5B82-AE76-4107-B8B1-455E1802FB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEDF84D-1ABB-40FC-8F65-68F9104BCF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="427" xr2:uid="{AA3E3ED2-D1CE-4731-B216-D8126A38E504}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="427" xr2:uid="{AA3E3ED2-D1CE-4731-B216-D8126A38E504}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="ReviewOutcomes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3070,12 +3070,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3098,6 +3092,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3436,7 +3436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5E228-67D2-4492-83EA-E3BA6C3CD475}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P20" sqref="P20"/>
     </sheetView>
@@ -3465,42 +3465,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="18" t="s">
         <v>135</v>
       </c>
       <c r="S1" s="5"/>
@@ -3521,12 +3521,12 @@
       <c r="AH1" s="5"/>
     </row>
     <row r="2" spans="1:34" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="9" t="s">
         <v>136</v>
       </c>
@@ -3557,8 +3557,8 @@
       <c r="P2" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -4474,16 +4474,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
